--- a/exercicios/1.3-exercicio-pclinics/Modelagens/Modelagem_PClinics-fisico.xlsx
+++ b/exercicios/1.3-exercicio-pclinics/Modelagens/Modelagem_PClinics-fisico.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D752DD7C-A27D-4961-A778-127C2F9D8C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{C26E926F-5178-4927-A1FD-72D1F1894CF6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="PClinics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Clinica</t>
   </si>
@@ -72,9 +66,6 @@
     <t>CRMV</t>
   </si>
   <si>
-    <t>Pablo</t>
-  </si>
-  <si>
     <t>Pet</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t>Sarna encontrada</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo </t>
-  </si>
-  <si>
     <t>Mia</t>
   </si>
   <si>
@@ -136,12 +124,27 @@
   </si>
   <si>
     <t>9856-7745</t>
+  </si>
+  <si>
+    <t>RazaoSocial</t>
+  </si>
+  <si>
+    <t>Pitbull</t>
+  </si>
+  <si>
+    <t>Godofredo</t>
+  </si>
+  <si>
+    <t>9654-3467</t>
+  </si>
+  <si>
+    <t>Pulga encontrada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,11 +320,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,7 +330,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,43 +342,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -499,7 +511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -693,67 +705,68 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FBE2FE-EE02-4668-AEC7-9696AA07AD67}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="E1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,229 +774,274 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="E5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>3</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="13">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="E5" s="37" t="s">
+      <c r="I7" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="21">
+        <v>3</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="E15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="35" t="s">
+      <c r="H15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="33">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33">
-        <v>1</v>
-      </c>
-      <c r="G7" s="33">
-        <v>2</v>
-      </c>
-      <c r="H7" s="34" t="s">
+      <c r="B16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2</v>
+      </c>
+      <c r="H16" s="30">
+        <v>44411</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="30">
+        <v>44412</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="34" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>3</v>
+      </c>
+      <c r="H18" s="30">
+        <v>44414</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="33">
-        <v>2</v>
-      </c>
-      <c r="F8" s="33">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33">
-        <v>2</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="E10" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21">
-        <v>1</v>
-      </c>
-      <c r="G12" s="21">
-        <v>2</v>
-      </c>
-      <c r="H12" s="23">
-        <v>44411</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>2</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="21">
-        <v>2</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
-      <c r="G13" s="21">
-        <v>2</v>
-      </c>
-      <c r="H13" s="23">
-        <v>44412</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>2</v>
-      </c>
-      <c r="B18" s="17">
-        <v>2</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E14:I14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>

--- a/exercicios/1.3-exercicio-pclinics/Modelagens/Modelagem_PClinics-fisico.xlsx
+++ b/exercicios/1.3-exercicio-pclinics/Modelagens/Modelagem_PClinics-fisico.xlsx
@@ -352,6 +352,27 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,27 +392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -705,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,26 +731,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="E1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -759,7 +759,7 @@
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -790,17 +790,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="E5" s="29" t="s">
+      <c r="B5" s="33"/>
+      <c r="E5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -818,10 +818,10 @@
       <c r="G6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="28" t="s">
         <v>18</v>
       </c>
     </row>
@@ -841,10 +841,10 @@
       <c r="G7" s="21">
         <v>3</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="24" t="s">
         <v>34</v>
       </c>
     </row>
@@ -864,10 +864,10 @@
       <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="24" t="s">
         <v>33</v>
       </c>
     </row>
@@ -881,24 +881,24 @@
       <c r="G9" s="21">
         <v>2</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
     </row>
@@ -914,25 +914,25 @@
       <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="E15" s="19" t="s">
         <v>23</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="G16" s="17">
         <v>2</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="23">
         <v>44411</v>
       </c>
       <c r="I16" s="18" t="s">
@@ -994,7 +994,7 @@
       <c r="G17" s="17">
         <v>2</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="23">
         <v>44412</v>
       </c>
       <c r="I17" s="18" t="s">
@@ -1020,8 +1020,8 @@
       <c r="G18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="30">
-        <v>44414</v>
+      <c r="H18" s="23">
+        <v>44413</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>39</v>
